--- a/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Clase-trans_orig.xlsx
@@ -663,7 +663,7 @@
         <v>53.00996057861476</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>52.57896447184517</v>
+        <v>52.57896447184516</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>52.8861186429639</v>
@@ -681,7 +681,7 @@
         <v>52.45142683634656</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>52.02925843913182</v>
+        <v>52.02925843913181</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>52.44170093564082</v>
@@ -693,7 +693,7 @@
         <v>52.69174574652292</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>52.36854505342983</v>
+        <v>52.36854505342982</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>52.33530222992044</v>
+        <v>52.42326774273148</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>51.83553325498161</v>
+        <v>51.77998753274935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52.16769067089687</v>
+        <v>52.16599892948151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51.81350098279924</v>
+        <v>51.83623655689782</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>50.5635181636267</v>
+        <v>50.64813223452533</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>50.78366789291955</v>
+        <v>50.66940133019732</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>51.53321802735042</v>
+        <v>51.55997436506804</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>51.33975671239703</v>
+        <v>51.31708847352849</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>51.88672034682139</v>
+        <v>51.91918563764071</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51.66067351071223</v>
+        <v>51.61997575270156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52.1279051769825</v>
+        <v>52.12864646542452</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>51.86830477228517</v>
+        <v>51.83955047589231</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.59183017616557</v>
+        <v>53.62993634767841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>53.20681631220867</v>
+        <v>53.26084695254426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53.44927164327239</v>
+        <v>53.51945901835404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53.29323801051276</v>
+        <v>53.27906198348609</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.39282341025815</v>
+        <v>52.41586983855324</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>52.63785884753165</v>
+        <v>52.53753680866365</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>53.27817202953185</v>
+        <v>53.32686371715649</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>52.61117702914621</v>
+        <v>52.65859149219985</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>52.99068515658995</v>
+        <v>52.94147646555698</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52.73825149412033</v>
+        <v>52.78414337133309</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53.1865542468009</v>
+        <v>53.18593726396569</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>52.83605185127145</v>
+        <v>52.82284155661213</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>53.22204697114157</v>
+        <v>53.22204697114155</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>52.41253493985003</v>
@@ -829,7 +829,7 @@
         <v>52.26961170187229</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>52.5244397493469</v>
+        <v>52.52443974934688</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>52.43455910338436</v>
+        <v>52.41805734156182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.57829357871106</v>
+        <v>51.4752638294827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51.8880819318339</v>
+        <v>51.82014948965509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.84058315065162</v>
+        <v>52.78458329127504</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>49.71469857646102</v>
+        <v>49.8216850123361</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.59507621113242</v>
+        <v>48.60226308619384</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>50.93209042584044</v>
+        <v>50.99779566783312</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.46138503446203</v>
+        <v>50.38836143181433</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.3352244528087</v>
+        <v>51.35832871556931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50.5570665274201</v>
+        <v>50.52298583512384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.68290456036507</v>
+        <v>51.63495723541381</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.93374695229292</v>
+        <v>51.93953493612303</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.85959163870574</v>
+        <v>53.90350801814666</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>53.15746733402894</v>
+        <v>53.12480740599367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.39802570396586</v>
+        <v>53.41825092046781</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>54.28338255402643</v>
+        <v>54.25373153250365</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>51.45337788470814</v>
+        <v>51.40421264608073</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.72140055888934</v>
+        <v>50.73431947515063</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>52.51275391473036</v>
+        <v>52.53997196886777</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>52.03730415245715</v>
+        <v>51.9475752809198</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>52.50199178227308</v>
+        <v>52.48552301228588</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.86852755476118</v>
+        <v>51.84915174487977</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.83170063887452</v>
+        <v>52.77997320754702</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>53.03138568566268</v>
+        <v>53.0039741204088</v>
       </c>
     </row>
     <row r="10">
@@ -950,13 +950,13 @@
         <v>48.61081842279012</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>49.31172975921043</v>
+        <v>49.31172975921044</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>50.65505655959942</v>
+        <v>50.65505655959941</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>52.00263227753113</v>
+        <v>52.00263227753111</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>50.60503641829276</v>
@@ -965,7 +965,7 @@
         <v>51.30092573269837</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>51.61722155570538</v>
+        <v>51.6172215557054</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>51.93965905992735</v>
+        <v>51.92612207801701</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>50.70208493352701</v>
+        <v>50.74843388340617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51.10592941008827</v>
+        <v>51.19435632749531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51.08437762064636</v>
+        <v>50.93298648541349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>48.58859326135753</v>
+        <v>48.49312350795329</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>47.09686945054548</v>
+        <v>47.11144458515422</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>47.38187772489574</v>
+        <v>47.30251947744107</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>49.45246719949986</v>
+        <v>49.2039382625033</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>51.396747785454</v>
+        <v>51.42136573076987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49.88220299762059</v>
+        <v>49.98818677976647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50.65053026173669</v>
+        <v>50.57774563584983</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>50.86788587814273</v>
+        <v>50.85700614191284</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.07444171403709</v>
+        <v>53.03776683611464</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.03831855626198</v>
+        <v>52.08335707882077</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52.58323930648034</v>
+        <v>52.58399589342208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52.81050390047083</v>
+        <v>52.81710586955785</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>51.79105383803949</v>
+        <v>51.69038389649506</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>49.84513430743516</v>
+        <v>49.84432006335406</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>50.77217576100329</v>
+        <v>50.80528301165795</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>51.74823693127417</v>
+        <v>51.60582994610748</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>52.55295879363501</v>
+        <v>52.54062549871936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.21336580310346</v>
+        <v>51.21000630814238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51.9543908018912</v>
+        <v>51.95520266518197</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>52.3010598382775</v>
+        <v>52.26832098625729</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>51.39518746817163</v>
+        <v>51.39701121505974</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>50.94205886900423</v>
+        <v>50.945775658027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51.83399525528055</v>
+        <v>51.83698465895144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51.85129917872737</v>
+        <v>51.7956769783322</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>49.97282759544134</v>
+        <v>49.93136688837855</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.72420348716625</v>
+        <v>48.70951926122854</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>49.80091388126706</v>
+        <v>49.79111594174129</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.59813587953597</v>
+        <v>50.62775615454846</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.02301661278285</v>
+        <v>50.95413132211807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50.25716677317838</v>
+        <v>50.25579065353265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.16148467230941</v>
+        <v>51.13783764149758</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>51.46429061839868</v>
+        <v>51.46980849071289</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52.23653106357309</v>
+        <v>52.26211625891573</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>51.98278087986084</v>
+        <v>51.97349960814692</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.74017157369534</v>
+        <v>52.76437761669625</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52.8427391550542</v>
+        <v>52.81334746454732</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.18973204310413</v>
+        <v>51.22995096544926</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>50.22436400855533</v>
+        <v>50.22466730812622</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>51.15804158887882</v>
+        <v>51.19196702385859</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.69848195173794</v>
+        <v>51.69456544745211</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>51.72347654624675</v>
+        <v>51.67615602763446</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51.13308010953978</v>
+        <v>51.08962572792229</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.91431039049939</v>
+        <v>51.92118498193438</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>52.21437923221534</v>
+        <v>52.20237276549343</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>52.51183288943768</v>
+        <v>52.51183288943769</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>52.33414921229012</v>
@@ -1213,7 +1213,7 @@
         <v>51.75832997784879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52.20741045126374</v>
+        <v>52.20741045126375</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>50.3414381191777</v>
@@ -1231,13 +1231,13 @@
         <v>51.16906505175662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49.61817554396028</v>
+        <v>49.61817554396027</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>50.18792337481452</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>50.62784767537523</v>
+        <v>50.62784767537524</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>51.44832876565641</v>
+        <v>51.43307259510029</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.59562373599832</v>
+        <v>51.61164927680241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51.00903024694905</v>
+        <v>51.03047906534732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51.46115126435852</v>
+        <v>51.49267771562779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>49.52397230458165</v>
+        <v>49.52010884018008</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.99107839865911</v>
+        <v>46.93158736279166</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>48.025756353971</v>
+        <v>48.09035666347812</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>48.89933592752965</v>
+        <v>48.97163288668006</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>50.59465297940021</v>
+        <v>50.57396037067523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49.04959719032743</v>
+        <v>49.04329201987628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49.64607790298968</v>
+        <v>49.65237059127691</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>50.17474605033978</v>
+        <v>50.13582691365443</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>53.29510253811562</v>
+        <v>53.23426675544514</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.96633388271847</v>
+        <v>52.95120875367619</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.36851303041497</v>
+        <v>52.37380980422055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52.85292296111038</v>
+        <v>52.88413399208959</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>51.02130426651838</v>
+        <v>51.06913457386056</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.6421210987243</v>
+        <v>48.54226450862897</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>49.58935293451969</v>
+        <v>49.59119748585206</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.12927834370679</v>
+        <v>50.10800987777539</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.72470593098044</v>
+        <v>51.75158219162245</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50.17499271872381</v>
+        <v>50.18769525564259</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.68885609557491</v>
+        <v>50.7116510017838</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>51.07753797767695</v>
+        <v>51.07198748697331</v>
       </c>
     </row>
     <row r="19">
@@ -1346,7 +1346,7 @@
         <v>54.16342222791464</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54.33421010917761</v>
+        <v>54.33421010917762</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>54.19081594525577</v>
@@ -1361,7 +1361,7 @@
         <v>51.03722355270362</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>50.43090836464894</v>
+        <v>50.43090836464895</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>51.60130647737743</v>
@@ -1373,7 +1373,7 @@
         <v>51.72867435218789</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>51.262635858256</v>
+        <v>51.26263585825601</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>53.30357468093459</v>
+        <v>53.3677045143524</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>53.26564880808295</v>
+        <v>53.18638566414088</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53.38700052621491</v>
+        <v>53.41157116928277</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52.59290603554062</v>
+        <v>52.54313693189965</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>50.49486888558955</v>
+        <v>50.49630625770854</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>48.57125956679218</v>
+        <v>48.61396711894165</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>50.435030559327</v>
+        <v>50.37937462136827</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>49.79750564561557</v>
+        <v>49.74348317139892</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>51.12994862003174</v>
+        <v>51.13901377281174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49.6434683238818</v>
+        <v>49.64810599838936</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51.17673958807916</v>
+        <v>51.19407477938176</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>50.65662097847118</v>
+        <v>50.62994592314831</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>54.78705524228383</v>
+        <v>54.77520631461288</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>54.87571313235172</v>
+        <v>54.87303549234502</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55.06826592219251</v>
+        <v>55.06542345611054</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55.25328309993662</v>
+        <v>55.3141569305447</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>51.42046854892545</v>
+        <v>51.44852512471427</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>49.84859832041102</v>
+        <v>49.8530050529123</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>51.63605865023297</v>
+        <v>51.56949564674522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>51.11749469982225</v>
+        <v>51.05227873241871</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>52.01956875255159</v>
+        <v>51.98615771227173</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50.75221102516307</v>
+        <v>50.73540001612823</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52.230924888181</v>
+        <v>52.21110651459197</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>51.86997074332447</v>
+        <v>51.86594953801311</v>
       </c>
     </row>
     <row r="22">
@@ -1479,16 +1479,16 @@
         <v>52.55314308826468</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>52.0620381200509</v>
+        <v>52.06203812005089</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>52.44048473502151</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52.64627130330585</v>
+        <v>52.64627130330584</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>50.77685976358446</v>
+        <v>50.77685976358448</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>49.21670440854106</v>
@@ -1497,7 +1497,7 @@
         <v>50.59283789546578</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>50.72636389232147</v>
+        <v>50.72636389232148</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>51.65058262721457</v>
@@ -1506,7 +1506,7 @@
         <v>50.61320850766148</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51.49717955387263</v>
+        <v>51.49717955387264</v>
       </c>
       <c r="N22" s="5" t="n">
         <v>51.66037547423597</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>52.3093049301127</v>
+        <v>52.30060376851337</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>51.76322960211821</v>
+        <v>51.77801438262804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.15913357521908</v>
+        <v>52.16047993804975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52.33226007023611</v>
+        <v>52.35600920591669</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>50.46520287651304</v>
+        <v>50.45029677249205</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>48.89123448722612</v>
+        <v>48.85312393245459</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>50.28338034713335</v>
+        <v>50.26468204072003</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>50.43682882238821</v>
+        <v>50.45293518116964</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>51.4558710324186</v>
+        <v>51.4625525844366</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50.39271554459447</v>
+        <v>50.38172418667019</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>51.27190958287595</v>
+        <v>51.29468672945774</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>51.46360521551127</v>
+        <v>51.43979922439919</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>52.81639510246286</v>
+        <v>52.81277612537488</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>52.34783728286519</v>
+        <v>52.34478492642297</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.6876154946055</v>
+        <v>52.70836051166176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52.93362872919811</v>
+        <v>52.93195056076779</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>51.06698156957204</v>
+        <v>51.04057005185727</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>49.5641026258512</v>
+        <v>49.58894452300962</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>50.92266565330627</v>
+        <v>50.9159831549245</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>50.99746023961477</v>
+        <v>51.00121992339325</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>51.83929269480571</v>
+        <v>51.84979438947708</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50.86422144172429</v>
+        <v>50.81791129841664</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51.70102809138447</v>
+        <v>51.72496436768882</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>51.87295009423062</v>
+        <v>51.85335874391109</v>
       </c>
     </row>
     <row r="25">
